--- a/trunk/Games/DungeonEye/Documentation/Helper.xlsx
+++ b/trunk/Games/DungeonEye/Documentation/Helper.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$T$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$O$50</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>N</t>
   </si>
@@ -88,6 +88,126 @@
   </si>
   <si>
     <t>Wall sides drawing</t>
+  </si>
+  <si>
+    <t>116, 106</t>
+  </si>
+  <si>
+    <t>62, 106</t>
+  </si>
+  <si>
+    <t>172, 106</t>
+  </si>
+  <si>
+    <t>66, 92</t>
+  </si>
+  <si>
+    <t>112, 92</t>
+  </si>
+  <si>
+    <t>6, 106</t>
+  </si>
+  <si>
+    <t>Monsters locations</t>
+  </si>
+  <si>
+    <t>72, 82</t>
+  </si>
+  <si>
+    <t>140, 82</t>
+  </si>
+  <si>
+    <t>172, 82</t>
+  </si>
+  <si>
+    <t>74, 76</t>
+  </si>
+  <si>
+    <t>100, 76</t>
+  </si>
+  <si>
+    <t>96, 70</t>
+  </si>
+  <si>
+    <t>76, 70</t>
+  </si>
+  <si>
+    <t>50, 76</t>
+  </si>
+  <si>
+    <t>22, 76</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>22, 92</t>
+  </si>
+  <si>
+    <t>156, 92</t>
+  </si>
+  <si>
+    <t>118, 70</t>
+  </si>
+  <si>
+    <t>138, 70</t>
+  </si>
+  <si>
+    <t>112, 64</t>
+  </si>
+  <si>
+    <t>80, 66</t>
+  </si>
+  <si>
+    <t>92, 66</t>
+  </si>
+  <si>
+    <t>40, 82</t>
+  </si>
+  <si>
+    <t>6, 82</t>
+  </si>
+  <si>
+    <t>54, 70</t>
+  </si>
+  <si>
+    <t>32, 70</t>
+  </si>
+  <si>
+    <t>58, 66</t>
+  </si>
+  <si>
+    <t>10, 70</t>
+  </si>
+  <si>
+    <t>24, 66</t>
+  </si>
+  <si>
+    <t>10, 66</t>
+  </si>
+  <si>
+    <t>42, 66</t>
+  </si>
+  <si>
+    <t>126, 76</t>
+  </si>
+  <si>
+    <t>152, 76</t>
+  </si>
+  <si>
+    <t>104, 82</t>
+  </si>
+  <si>
+    <t>128, 64</t>
+  </si>
+  <si>
+    <t>160, 70</t>
+  </si>
+  <si>
+    <t>146, 64</t>
+  </si>
+  <si>
+    <t>164, 64</t>
   </si>
 </sst>
 </file>
@@ -125,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,8 +263,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -163,6 +301,313 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDotDot">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDotDot">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDotDot">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDotDot">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -173,7 +618,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -185,22 +630,132 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -223,13 +778,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>18864</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>18906</xdr:rowOff>
@@ -549,339 +1104,770 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:Z18"/>
+  <dimension ref="A2:AA38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="19" width="4" customWidth="1"/>
-    <col min="22" max="45" width="4" customWidth="1"/>
+    <col min="1" max="17" width="4" customWidth="1"/>
+    <col min="18" max="33" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="L4" s="8" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="I4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D5" s="5" t="s">
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="2"/>
+      <c r="I5" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
       <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="11"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="V6" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z6" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA6" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="I7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3</v>
+      </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y7" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA7" s="37"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="7"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="47"/>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="V9" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="X9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="11"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="W10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="24"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="11"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="W11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="X11" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y11" s="12"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="11"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" s="41"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
         <v>-2</v>
       </c>
-      <c r="M5" s="1">
+      <c r="J13" s="1">
         <v>-1</v>
       </c>
-      <c r="N5" s="1">
+      <c r="K13" s="1">
         <v>0</v>
       </c>
-      <c r="O5" s="1">
+      <c r="L13" s="1">
         <v>1</v>
       </c>
-      <c r="P5" s="1">
+      <c r="M13" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="3" t="s">
+      <c r="P13" s="10"/>
+      <c r="Q13" s="11"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P14" s="10"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I15" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="J15" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="K15" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="L15" s="6">
         <v>3</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="M15" s="6">
+        <v>4</v>
+      </c>
+      <c r="O15" s="1">
+        <v>3</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I16" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="J16" s="6">
+        <v>6</v>
+      </c>
+      <c r="K16" s="6">
+        <v>7</v>
+      </c>
+      <c r="L16" s="6">
+        <v>8</v>
+      </c>
+      <c r="M16" s="6">
+        <v>9</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+    </row>
+    <row r="17" spans="9:27" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+      <c r="J17" s="6">
+        <v>10</v>
+      </c>
+      <c r="K17" s="6">
+        <v>11</v>
+      </c>
+      <c r="L17" s="6">
+        <v>12</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+    </row>
+    <row r="18" spans="9:27" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+      <c r="J18" s="6">
+        <v>13</v>
+      </c>
+      <c r="K18" s="6">
+        <v>14</v>
+      </c>
+      <c r="L18" s="6">
+        <v>15</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="O18" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="L7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="L8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="1"/>
-      <c r="R9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L13" s="1">
-        <v>-2</v>
-      </c>
-      <c r="M13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L15" s="10">
-        <v>0</v>
-      </c>
-      <c r="M15" s="10">
-        <v>1</v>
-      </c>
-      <c r="N15" s="10">
-        <v>2</v>
-      </c>
-      <c r="O15" s="10">
-        <v>3</v>
-      </c>
-      <c r="P15" s="10">
-        <v>4</v>
-      </c>
-      <c r="R15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L16" s="10">
-        <v>5</v>
-      </c>
-      <c r="M16" s="10">
-        <v>6</v>
-      </c>
-      <c r="N16" s="10">
-        <v>7</v>
-      </c>
-      <c r="O16" s="10">
-        <v>8</v>
-      </c>
-      <c r="P16" s="10">
-        <v>9</v>
-      </c>
-      <c r="R16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="1"/>
-      <c r="M17" s="10">
-        <v>10</v>
-      </c>
-      <c r="N17" s="10">
-        <v>11</v>
-      </c>
-      <c r="O17" s="10">
-        <v>12</v>
-      </c>
-      <c r="P17" s="1"/>
-      <c r="R17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="1"/>
-      <c r="M18" s="10">
-        <v>13</v>
-      </c>
-      <c r="N18" s="10">
-        <v>14</v>
-      </c>
-      <c r="O18" s="10">
-        <v>15</v>
-      </c>
-      <c r="P18" s="1"/>
-      <c r="R18" s="1">
-        <v>0</v>
-      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+    </row>
+    <row r="19" spans="9:27" x14ac:dyDescent="0.25">
+      <c r="P19" s="10"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+    </row>
+    <row r="20" spans="9:27" x14ac:dyDescent="0.25">
+      <c r="P20" s="10"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+    </row>
+    <row r="21" spans="9:27" x14ac:dyDescent="0.25">
+      <c r="P21" s="10"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+    </row>
+    <row r="22" spans="9:27" x14ac:dyDescent="0.25">
+      <c r="P22" s="10"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+    </row>
+    <row r="23" spans="9:27" x14ac:dyDescent="0.25">
+      <c r="P23" s="4"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+    </row>
+    <row r="24" spans="9:27" x14ac:dyDescent="0.25">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+    </row>
+    <row r="25" spans="9:27" x14ac:dyDescent="0.25">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="13"/>
+    </row>
+    <row r="26" spans="9:27" x14ac:dyDescent="0.25">
+      <c r="P26" s="4"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="13"/>
+    </row>
+    <row r="27" spans="9:27" x14ac:dyDescent="0.25">
+      <c r="P27" s="4"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="13"/>
+    </row>
+    <row r="28" spans="9:27" x14ac:dyDescent="0.25">
+      <c r="P28" s="4"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="13"/>
+    </row>
+    <row r="29" spans="9:27" x14ac:dyDescent="0.25">
+      <c r="P29" s="4"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="13"/>
+    </row>
+    <row r="30" spans="9:27" x14ac:dyDescent="0.25">
+      <c r="P30" s="4"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="13"/>
+    </row>
+    <row r="31" spans="9:27" x14ac:dyDescent="0.25">
+      <c r="P31" s="4"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="13"/>
+    </row>
+    <row r="32" spans="9:27" x14ac:dyDescent="0.25">
+      <c r="P32" s="4"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="13"/>
+    </row>
+    <row r="33" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P33" s="4"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="13"/>
+    </row>
+    <row r="34" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="13"/>
+    </row>
+    <row r="35" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="13"/>
+    </row>
+    <row r="36" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+    </row>
+    <row r="37" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+    </row>
+    <row r="38" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="B12:G12"/>
+  <mergeCells count="8">
+    <mergeCell ref="V22:W23"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="V12:W13"/>
+    <mergeCell ref="R4:AA4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="I4:M4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="T9 S7 R6" twoDigitTextYear="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
